--- a/textjoin-excel-demos.xlsx
+++ b/textjoin-excel-demos.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044BED6-E3B7-4B40-BE76-AA6E3B0E232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075CA33-F6C0-44B5-929F-2EA475FEA8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{76B03682-BF1D-49D4-B0AC-650D84799C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="textjoin" sheetId="1" r:id="rId1"/>
+    <sheet name="textjoin (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="textjoin (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="textjoin (4)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Dog</t>
   </si>
@@ -127,6 +130,9 @@
   </si>
   <si>
     <t>Analytics</t>
+  </si>
+  <si>
+    <t>Pear</t>
   </si>
 </sst>
 </file>
@@ -498,9 +504,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B200B9E-E0B9-48DC-8534-F06DCADFBA92}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, A1:A3)</f>
+        <v>Dog, Cat, Bird</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8E630E-89F4-46CC-BCAA-AEC1AB3F79DA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1">_xlfn.TEXTJOIN(", ", ,
+  IF(B1:B3="Fruit", A1:A3, ""))</f>
+        <v>Apple, Banana</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6773F23-65F1-4CC3-B5B7-C02D436FB15E}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -510,148 +604,131 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, A1:A3)</f>
-        <v>Dog, Cat, Bird</v>
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="str" cm="1">
+        <f t="array" ref="D1">_xlfn.TEXTJOIN(", ", TRUE, IF(C1:C4="Developer", A1:A4
+         &amp;" from " &amp; B1:B4, ""))</f>
+        <v>John from IT, Carol from Analytics</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D5A731-7652-4261-9477-03410321C299}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="str" cm="1">
+        <f t="array" ref="D1">_xlfn.TEXTJOIN(", ", TRUE,
+  IF((B1:B5="Green")+(B1:B5="Orange"), A1:A5
+    &amp;" ("&amp;C1:C5&amp;")", ""))</f>
+        <v>Apple (5), Orange (2), Pear (4)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>4</v>
-      </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">_xlfn.TEXTJOIN(", ", TRUE, IF(B5:B7="Fruit", A5:A7, ""))</f>
-        <v>Apple, Banana</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="str" cm="1">
-        <f t="array" ref="D9">_xlfn.TEXTJOIN(", ", TRUE, IF(C9:C12="Developer", A9:A12
-         &amp;" from " &amp; B9:B12, ""))</f>
-        <v>John from IT, Carol from Analytics</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" t="str" cm="1">
-        <f t="array" ref="D18">_xlfn.TEXTJOIN(", ", TRUE,
-  IF((B18:B21="Green")+(B18:B21="Orange"), A18:A21
-    &amp;" ("&amp;C18:C21&amp;")", ""))</f>
-        <v>Apple (5), Orange (2)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
